--- a/Organización/Procesos/Soporte Organizacional/3. Medición, Monitoreo y Control/Medición/IWM_Concentración_Métricas.xlsx
+++ b/Organización/Procesos/Soporte Organizacional/3. Medición, Monitoreo y Control/Medición/IWM_Concentración_Métricas.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\IWM\Repositorio IWM\Organización\Procesos\Soporte Organizacional\3. Medición, Monitoreo y Control\Medición\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="705" windowWidth="12915" windowHeight="4590" tabRatio="658" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="705" windowWidth="12915" windowHeight="4590" tabRatio="658" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Procesos" sheetId="2" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <sheet name="Esfuerzo" sheetId="6" r:id="rId5"/>
     <sheet name="Costos" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -159,10 +164,10 @@
     <t>webalgoritmia</t>
   </si>
   <si>
-    <t>&lt;Proyecto 4&gt;</t>
+    <t>Aseguramietno de la calida</t>
   </si>
   <si>
-    <t>Aseguramietno de la calida</t>
+    <t>Viaticos</t>
   </si>
 </sst>
 </file>
@@ -826,6 +831,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -833,7 +841,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -910,7 +918,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -918,6 +938,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -962,7 +987,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -984,6 +1021,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1043,7 +1085,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1051,6 +1105,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1095,7 +1154,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1117,6 +1188,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1161,7 +1237,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1183,6 +1271,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1242,7 +1335,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1250,6 +1355,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1302,12 +1412,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="131613696"/>
-        <c:axId val="50780928"/>
+        <c:axId val="129878912"/>
+        <c:axId val="129879472"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="131613696"/>
+        <c:axId val="129878912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1316,7 +1426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50780928"/>
+        <c:crossAx val="129879472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1324,7 +1434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50780928"/>
+        <c:axId val="129879472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1335,13 +1445,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131613696"/>
+        <c:crossAx val="129878912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1359,7 +1470,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1394,17 +1505,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Productos!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
@@ -1436,7 +1536,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1444,12 +1556,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Productos!#REF!</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Productos!$O$3</c:f>
@@ -1462,21 +1574,48 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Productos!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Productos!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Productos!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
@@ -1508,7 +1647,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1516,6 +1667,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1529,21 +1685,33 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Productos!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Productos!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
@@ -1560,7 +1728,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1568,6 +1748,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1581,21 +1766,33 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Productos!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Productos!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
@@ -1627,7 +1824,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1635,6 +1844,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1648,21 +1862,33 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Productos!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Productos!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
@@ -1694,7 +1920,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1702,6 +1940,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1715,21 +1958,33 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Productos!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
           <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Productos!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
@@ -1746,7 +2001,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1768,6 +2035,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1781,21 +2053,33 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Productos!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
           <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Productos!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
@@ -1827,7 +2111,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1835,6 +2131,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1848,21 +2149,33 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Productos!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Productos!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
@@ -1879,7 +2192,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1901,6 +2226,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1914,6 +2244,29 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Productos!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1925,12 +2278,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="133460480"/>
-        <c:axId val="52995200"/>
+        <c:axId val="129886752"/>
+        <c:axId val="131293712"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="133460480"/>
+        <c:axId val="129886752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1939,7 +2292,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52995200"/>
+        <c:crossAx val="131293712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1947,7 +2300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52995200"/>
+        <c:axId val="131293712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1958,13 +2311,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133460480"/>
+        <c:crossAx val="129886752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1982,7 +2336,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2014,6 +2368,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2133,11 +2488,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="133462016"/>
-        <c:axId val="52997504"/>
+        <c:axId val="131297632"/>
+        <c:axId val="131298192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133462016"/>
+        <c:axId val="131297632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2147,7 +2502,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52997504"/>
+        <c:crossAx val="131298192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2155,7 +2510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52997504"/>
+        <c:axId val="131298192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2167,13 +2522,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133462016"/>
+        <c:crossAx val="131297632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2191,7 +2547,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2283,7 +2639,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2291,6 +2659,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2367,7 +2740,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2375,6 +2760,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -2434,7 +2824,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2442,6 +2844,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -2465,20 +2872,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="133632000"/>
-        <c:axId val="52999808"/>
+        <c:axId val="206392656"/>
+        <c:axId val="206393216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133632000"/>
+        <c:axId val="206392656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52999808"/>
+        <c:crossAx val="206393216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2486,7 +2894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52999808"/>
+        <c:axId val="206393216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,7 +2905,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133632000"/>
+        <c:crossAx val="206392656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2706,7 +3114,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2741,7 +3149,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2953,8 +3361,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B1:O29"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O10"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3257,8 +3665,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="B1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3800,7 +4208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -3984,8 +4392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4475,7 +4883,7 @@
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D35" s="54"/>
       <c r="E35" s="55"/>
@@ -4502,11 +4910,15 @@
       <c r="B37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
+      <c r="C37" s="9">
+        <v>29</v>
+      </c>
+      <c r="D37" s="10">
+        <v>27</v>
+      </c>
       <c r="E37" s="30">
         <f t="shared" ref="E37:E44" si="3">(D37-C37)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -4516,11 +4928,15 @@
       <c r="B38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="5"/>
+      <c r="C38" s="6">
+        <v>46</v>
+      </c>
+      <c r="D38" s="5">
+        <v>42</v>
+      </c>
       <c r="E38" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -4530,11 +4946,15 @@
       <c r="B39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="5"/>
+      <c r="C39" s="6">
+        <v>100</v>
+      </c>
+      <c r="D39" s="5">
+        <v>20</v>
+      </c>
       <c r="E39" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -4544,11 +4964,13 @@
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="6"/>
+      <c r="C40" s="6">
+        <v>8</v>
+      </c>
       <c r="D40" s="5"/>
       <c r="E40" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -4558,8 +4980,12 @@
       <c r="B41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="5"/>
+      <c r="C41" s="6">
+        <v>13</v>
+      </c>
+      <c r="D41" s="5">
+        <v>13</v>
+      </c>
       <c r="E41" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4572,9 +4998,16 @@
       <c r="B42" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="30"/>
+      <c r="C42" s="6">
+        <v>22</v>
+      </c>
+      <c r="D42" s="5">
+        <v>4</v>
+      </c>
+      <c r="E42" s="30">
+        <f t="shared" si="3"/>
+        <v>-18</v>
+      </c>
     </row>
     <row r="43" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
@@ -4583,11 +5016,15 @@
       <c r="B43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="5"/>
+      <c r="C43" s="6">
+        <v>4</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
       <c r="E43" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="7" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4597,11 +5034,15 @@
       <c r="B44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="17"/>
+      <c r="C44" s="16">
+        <v>4</v>
+      </c>
+      <c r="D44" s="17">
+        <v>1</v>
+      </c>
       <c r="E44" s="31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
   </sheetData>
@@ -4620,8 +5061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="B25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4919,7 +5360,7 @@
         <v>41206</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="42">
         <v>767.46</v>
@@ -5070,7 +5511,7 @@
         <v>18</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="5"/>
@@ -5110,7 +5551,7 @@
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D35" s="54"/>
       <c r="E35" s="55"/>
@@ -5137,11 +5578,15 @@
       <c r="B37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="5"/>
+      <c r="C37" s="6">
+        <v>1496.9</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1393.66</v>
+      </c>
       <c r="E37" s="34">
         <f t="shared" ref="E37:E44" si="3">(D37-C37)</f>
-        <v>0</v>
+        <v>-103.24000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -5151,11 +5596,15 @@
       <c r="B38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="5"/>
+      <c r="C38" s="6">
+        <v>2745.01</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2505.6</v>
+      </c>
       <c r="E38" s="34">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-239.41000000000031</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -5165,11 +5614,15 @@
       <c r="B39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="5"/>
+      <c r="C39" s="6">
+        <v>6307.67</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1261.5340000000001</v>
+      </c>
       <c r="E39" s="34">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-5046.1360000000004</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -5179,11 +5632,15 @@
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="5"/>
+      <c r="C40" s="6">
+        <v>478.83</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
       <c r="E40" s="34">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-478.83</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -5193,8 +5650,12 @@
       <c r="B41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="5"/>
+      <c r="C41" s="6">
+        <v>415.71</v>
+      </c>
+      <c r="D41" s="5">
+        <v>415.71</v>
+      </c>
       <c r="E41" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5205,13 +5666,17 @@
         <v>18</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="C42" s="6">
+        <v>703.51</v>
+      </c>
+      <c r="D42" s="5">
+        <v>127.91</v>
+      </c>
       <c r="E42" s="34">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-575.6</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -5221,11 +5686,15 @@
       <c r="B43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="5"/>
+      <c r="C43" s="6">
+        <v>239.41</v>
+      </c>
+      <c r="D43" s="5">
+        <v>59.85</v>
+      </c>
       <c r="E43" s="34">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-179.56</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5235,11 +5704,15 @@
       <c r="B44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="33"/>
+      <c r="C44" s="32">
+        <v>239.41</v>
+      </c>
+      <c r="D44" s="33">
+        <v>59.85</v>
+      </c>
       <c r="E44" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-179.56</v>
       </c>
     </row>
   </sheetData>

--- a/Organización/Procesos/Soporte Organizacional/3. Medición, Monitoreo y Control/Medición/IWM_Concentración_Métricas.xlsx
+++ b/Organización/Procesos/Soporte Organizacional/3. Medición, Monitoreo y Control/Medición/IWM_Concentración_Métricas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="705" windowWidth="12915" windowHeight="4590" tabRatio="658" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="708" windowWidth="12912" windowHeight="4596" tabRatio="658"/>
   </bookViews>
   <sheets>
     <sheet name="Procesos" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="53">
   <si>
     <t>Organizacional</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Ejecucion</t>
   </si>
   <si>
-    <t>Proyecto 3</t>
-  </si>
-  <si>
     <t>Estimación y planeación</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
   </si>
   <si>
     <t>Seguimiento del proyecto</t>
-  </si>
-  <si>
-    <t>Administración de la configuración</t>
   </si>
   <si>
     <t>&lt;aammdd&gt;</t>
@@ -114,25 +108,10 @@
     <t>Propuesta comercial</t>
   </si>
   <si>
-    <t>Plan de estructura organizacional</t>
-  </si>
-  <si>
     <t>Anualmente</t>
   </si>
   <si>
-    <t>Plan de mediciones</t>
-  </si>
-  <si>
-    <t>Plan de QA</t>
-  </si>
-  <si>
-    <t>Evaluación de proveedores</t>
-  </si>
-  <si>
     <t>Al final estimación y planeación</t>
-  </si>
-  <si>
-    <t>Presentación y seguimiento</t>
   </si>
   <si>
     <t>Mensual</t>
@@ -163,6 +142,42 @@
   </si>
   <si>
     <t>Aseguramietno de la calida</t>
+  </si>
+  <si>
+    <t>Inter_cabina</t>
+  </si>
+  <si>
+    <t>Viaticos_q</t>
+  </si>
+  <si>
+    <t>Manual de Requerimientos</t>
+  </si>
+  <si>
+    <t>Estimación</t>
+  </si>
+  <si>
+    <t>Presentación y Seguimiento</t>
+  </si>
+  <si>
+    <t>Toma de Decision</t>
+  </si>
+  <si>
+    <t>Capacitación</t>
+  </si>
+  <si>
+    <t>Mejora</t>
+  </si>
+  <si>
+    <t>Plan de Aseguramiento de la Calidad</t>
+  </si>
+  <si>
+    <t>Plan de Métricas</t>
+  </si>
+  <si>
+    <t>Plan de Capacitación</t>
+  </si>
+  <si>
+    <t>Plan de Mejora</t>
   </si>
 </sst>
 </file>
@@ -249,7 +264,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,8 +289,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -663,6 +684,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -670,13 +717,10 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -813,6 +857,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,12 +983,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Procesos!$O$3</c:f>
+              <c:f>Procesos!$R$3</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.83350000000000002</c:v>
+                  <c:v>0.83340833333333342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -987,12 +1049,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Procesos!$O$4</c:f>
+              <c:f>Procesos!$R$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.89284999999999992</c:v>
+                  <c:v>0.75097045454545452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1054,9 +1116,9 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Procesos!$O$5</c:f>
+              <c:f>Procesos!$R$5</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1120,9 +1182,9 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Procesos!$O$6</c:f>
+              <c:f>Procesos!$R$6</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1186,9 +1248,9 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Procesos!$O$7</c:f>
+              <c:f>Procesos!$R$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1198,7 +1260,7 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="6"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
@@ -1206,66 +1268,27 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Medición</c:v>
+                  <c:v>Seguimiento del proyecto</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.0681926401316821E-2"/>
-                  <c:y val="7.33704502437377E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr>
-                      <a:solidFill>
-                        <a:schemeClr val="bg1"/>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Procesos!$O$8</c:f>
+              <c:f>Procesos!$R$8</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
+          <c:idx val="7"/>
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
@@ -1273,7 +1296,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Seguimiento del proyecto</c:v>
+                  <c:v>Medición</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1281,12 +1304,68 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Procesos!$O$9</c:f>
+              <c:f>Procesos!$R$9</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.46153846153846156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Procesos!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Capacitación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Procesos!$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Procesos!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mejora</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Procesos!$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1302,12 +1381,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="131613696"/>
-        <c:axId val="50780928"/>
+        <c:axId val="107150720"/>
+        <c:axId val="107426944"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="131613696"/>
+        <c:axId val="107150720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1316,7 +1395,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50780928"/>
+        <c:crossAx val="107426944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1324,24 +1403,25 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50780928"/>
+        <c:axId val="107426944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131613696"/>
+        <c:crossAx val="107150720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1370,7 +1450,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:view3D>
       <c:rotX val="15"/>
       <c:rotY val="20"/>
@@ -1394,522 +1474,141 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
             <c:strRef>
-              <c:f>Productos!#REF!</c:f>
+              <c:f>Productos!$C$3:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>#REF!</c:v>
+                  <c:v>Manual de Requerimientos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Estimación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Propuesta comercial</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Plan de proyecto</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Presentación y Seguimiento</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Toma de Decision</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Plan de Aseguramiento de la Calidad</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Administración de la Configuración</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Plan de Métricas</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Plan de Capacitación</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Plan de Mejora</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.8703434929850023E-3"/>
-                  <c:y val="9.7222222222222238E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr>
-                      <a:solidFill>
-                        <a:schemeClr val="bg1"/>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Productos!#REF!</c:f>
-            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Productos!$O$3</c:f>
+              <c:f>Productos!$R$3:$R$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.81820000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Productos!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.9351717464925011E-3"/>
-                  <c:y val="8.3333333333333329E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr>
-                      <a:solidFill>
-                        <a:schemeClr val="bg1"/>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Productos!$O$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                  <c:v>0.80909999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78175714285714282</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58695652173913049</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66669999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94117647058823528</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Productos!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.1611030478955007E-2"/>
-                  <c:y val="0.1111111111111111"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Productos!$O$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.91669999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Productos!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.6758587324625063E-3"/>
-                  <c:y val="9.7222222222222224E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr>
-                      <a:solidFill>
-                        <a:schemeClr val="bg1"/>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Productos!$O$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Productos!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.6758587324625063E-3"/>
-                  <c:y val="9.722222222222214E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr>
-                      <a:solidFill>
-                        <a:schemeClr val="bg1"/>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Productos!$O$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.66669999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Productos!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.6758587324625063E-3"/>
-                  <c:y val="0.1111111111111111"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr>
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Productos!$O$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Productos!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.1611030478955007E-2"/>
-                  <c:y val="9.2592592592592587E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr>
-                      <a:solidFill>
-                        <a:schemeClr val="bg1"/>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Productos!$O$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Productos!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="7.7406869859700045E-3"/>
-                  <c:y val="9.2592592592592587E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr>
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Productos!$O$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1925,21 +1624,21 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="133460480"/>
-        <c:axId val="52995200"/>
+        <c:axId val="47302912"/>
+        <c:axId val="47312896"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="133460480"/>
+        <c:axId val="47302912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52995200"/>
+        <c:crossAx val="47312896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1947,24 +1646,25 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52995200"/>
+        <c:axId val="47312896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133460480"/>
+        <c:crossAx val="47302912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1986,10 +1686,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="126"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="26"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2004,16 +1704,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX"/>
-              <a:t>Auditorías</a:t>
+              <a:t>Auditorías físicas</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="es-MX" baseline="0"/>
-              <a:t> físicas</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2057,12 +1753,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Fisica!$M$3</c:f>
+              <c:f>Fisica!$P$3</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.33334999999999998</c:v>
+                  <c:v>0.3611166666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2085,12 +1781,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Fisica!$M$4</c:f>
+              <c:f>Fisica!$P$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.66666190476190479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2113,9 +1809,9 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Fisica!$M$5</c:f>
+              <c:f>Fisica!$P$5</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2133,11 +1829,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="133462016"/>
-        <c:axId val="52997504"/>
+        <c:axId val="107847680"/>
+        <c:axId val="107849216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133462016"/>
+        <c:axId val="107847680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2147,7 +1843,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52997504"/>
+        <c:crossAx val="107849216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2155,7 +1851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52997504"/>
+        <c:axId val="107849216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2163,17 +1859,18 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133462016"/>
+        <c:crossAx val="107847680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2195,10 +1892,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="126"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="26"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2268,11 +1965,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr>
-                      <a:solidFill>
-                        <a:schemeClr val="bg1"/>
-                      </a:solidFill>
-                    </a:defRPr>
+                    <a:defRPr/>
                   </a:pPr>
                   <a:endParaRPr lang="es-MX"/>
                 </a:p>
@@ -2311,12 +2004,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Funcional!$M$3</c:f>
+              <c:f>Funcional!$P$3</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2352,11 +2045,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr>
-                      <a:solidFill>
-                        <a:schemeClr val="bg1"/>
-                      </a:solidFill>
-                    </a:defRPr>
+                    <a:defRPr/>
                   </a:pPr>
                   <a:endParaRPr lang="es-MX"/>
                 </a:p>
@@ -2378,12 +2067,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Funcional!$M$4</c:f>
+              <c:f>Funcional!$P$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.875</c:v>
+                  <c:v>0.35833333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2419,11 +2108,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr>
-                      <a:solidFill>
-                        <a:schemeClr val="bg1"/>
-                      </a:solidFill>
-                    </a:defRPr>
+                    <a:defRPr/>
                   </a:pPr>
                   <a:endParaRPr lang="es-MX"/>
                 </a:p>
@@ -2445,9 +2130,9 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Funcional!$M$5</c:f>
+              <c:f>Funcional!$P$5</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2465,11 +2150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="133632000"/>
-        <c:axId val="52999808"/>
+        <c:axId val="107947904"/>
+        <c:axId val="107949440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133632000"/>
+        <c:axId val="107947904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2478,7 +2163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52999808"/>
+        <c:crossAx val="107949440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2486,18 +2171,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52999808"/>
+        <c:axId val="107949440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133632000"/>
+        <c:crossAx val="107947904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2524,15 +2209,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>830035</xdr:colOff>
+      <xdr:colOff>43180</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>67354</xdr:rowOff>
+      <xdr:rowOff>85134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1387928</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>139472</xdr:rowOff>
+      <xdr:colOff>1100908</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2559,19 +2244,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>173990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2636,7 +2321,7 @@
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>647699</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -2951,300 +2636,381 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="B1:O29"/>
+  <dimension ref="B1:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O10"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
-    <col min="3" max="3" width="56.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="12" width="16.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="12" width="16.109375" customWidth="1"/>
+    <col min="13" max="15" width="16.109375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="45" t="s">
+    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="48" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="48"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="55"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="51"/>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="35">
+        <v>20121025</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="19">
+        <v>121004</v>
+      </c>
+      <c r="H2" s="19">
+        <v>121023</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="19">
+        <v>150604</v>
+      </c>
+      <c r="K2" s="19">
+        <v>150611</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="20">
+        <v>150715</v>
+      </c>
+      <c r="N2" s="20">
+        <v>150716</v>
+      </c>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20">
+        <v>150713</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="36">
+        <v>1</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="59">
+        <f>AVERAGE(D3:O3)</f>
+        <v>0.83340833333333342</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="52"/>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="36">
-        <v>20121025</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="20">
-        <v>121004</v>
-      </c>
-      <c r="H2" s="20">
-        <v>121023</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="37">
-        <v>1</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="2">
-        <f t="shared" ref="O3:O10" si="0">AVERAGE(D3:L3)</f>
-        <v>0.83350000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="12">
-        <v>2</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="H4" s="36">
+        <v>0.92859999999999998</v>
+      </c>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36">
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="59">
+        <f>AVERAGE(D4:O4)</f>
+        <v>0.75097045454545452</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="59" t="e">
+        <f t="shared" ref="R5:R9" si="0">AVERAGE(D5:O5)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37">
-        <v>0.85709999999999997</v>
-      </c>
-      <c r="H4" s="37">
-        <v>0.92859999999999998</v>
-      </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.89284999999999992</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="12">
-        <v>3</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="2" t="e">
+      <c r="D6" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="59" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="12">
-        <v>4</v>
-      </c>
-      <c r="C6" s="19" t="s">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="11">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="2" t="e">
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="59" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
-        <v>5</v>
-      </c>
-      <c r="C7" s="18" t="s">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="11">
+        <v>6</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="59">
+        <f>AVERAGE(D8:O8)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11">
+        <v>7</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
-        <v>6</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="12">
-        <v>7</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37">
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="59">
+        <f>AVERAGE(P9:Q9)</f>
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="11">
+        <v>8</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36">
         <v>0.5</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="2">
-        <f t="shared" si="0"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="59">
+        <f t="shared" ref="R10:R11" si="1">AVERAGE(P10:Q10)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
-        <v>8</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D11" s="38"/>
-    </row>
-    <row r="29" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="59">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3255,360 +3021,505 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="B1:O41"/>
+  <dimension ref="B1:R41"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="13" max="15" width="11.5546875" style="6"/>
+    <col min="18" max="18" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="45" t="str">
+    <row r="1" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="44" t="str">
         <f>Procesos!D1</f>
         <v>Web IWM</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="45" t="str">
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="44" t="str">
         <f>Procesos!G1</f>
         <v>Web Anwar</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="45" t="str">
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="44" t="str">
         <f>Procesos!J1</f>
-        <v>Proyecto 3</v>
-      </c>
-      <c r="K1" s="46"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="46" t="s">
+        <v>Inter_cabina</v>
+      </c>
+      <c r="K1" s="45"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="45"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="47"/>
-    </row>
-    <row r="2" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="26">
+      <c r="Q1" s="46"/>
+    </row>
+    <row r="2" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="25">
         <f>Procesos!D2</f>
         <v>20121025</v>
       </c>
-      <c r="E2" s="26" t="str">
+      <c r="E2" s="25" t="str">
         <f>Procesos!E2</f>
         <v>&lt;aammdd&gt;</v>
       </c>
-      <c r="F2" s="26" t="str">
+      <c r="F2" s="25" t="str">
         <f>Procesos!F2</f>
         <v>&lt;aammdd&gt;</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="25">
         <f>Procesos!G2</f>
         <v>121004</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="25">
         <f>Procesos!H2</f>
         <v>121023</v>
       </c>
-      <c r="I2" s="26" t="str">
+      <c r="I2" s="25" t="str">
         <f>Procesos!I2</f>
         <v>&lt;aammdd&gt;</v>
       </c>
-      <c r="J2" s="26" t="str">
+      <c r="J2" s="25">
         <f>Procesos!J2</f>
-        <v>&lt;aammdd&gt;</v>
-      </c>
-      <c r="K2" s="26" t="str">
+        <v>150604</v>
+      </c>
+      <c r="K2" s="25">
         <f>Procesos!K2</f>
-        <v>&lt;aammdd&gt;</v>
-      </c>
-      <c r="L2" s="26" t="str">
+        <v>150611</v>
+      </c>
+      <c r="L2" s="25" t="str">
         <f>Procesos!L2</f>
         <v>&lt;aammdd&gt;</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="13" t="s">
+      <c r="M2" s="25">
+        <f>Procesos!M2</f>
+        <v>150715</v>
+      </c>
+      <c r="N2" s="25">
+        <f>Procesos!N2</f>
+        <v>150716</v>
+      </c>
+      <c r="O2" s="25"/>
+      <c r="P2" s="13">
+        <f>Procesos!P2</f>
+        <v>150713</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="12">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="36">
         <v>1</v>
       </c>
-      <c r="D3" s="37">
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="59">
+        <f>AVERAGE(D3:Q3)</f>
+        <v>0.80909999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="36">
         <v>1</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37">
-        <v>0.63639999999999997</v>
-      </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="2">
-        <f>AVERAGE(D3:N3)</f>
-        <v>0.81820000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="12">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="37">
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36">
+        <v>0.9375</v>
+      </c>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36">
+        <v>0.9375</v>
+      </c>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="59">
+        <f t="shared" ref="R4:R10" si="0">AVERAGE(D4:Q4)</f>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="36">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36">
         <v>1</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="2">
-        <f t="shared" ref="O4:O10" si="0">AVERAGE(D4:N4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="12">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="37">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="2">
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="59">
         <f t="shared" si="0"/>
-        <v>0.91669999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="12">
+        <v>0.78175714285714282</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="37">
+      <c r="C6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="36">
         <v>0.5</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="2">
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36">
+        <v>0.52173913043478259</v>
+      </c>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36">
+        <v>0.73913043478260865</v>
+      </c>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="59">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
+        <v>0.58695652173913049</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37">
+      <c r="C7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
         <v>0.66669999999999996</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="2">
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="59">
         <f t="shared" si="0"/>
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
+    <row r="8" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="2" t="e">
+      <c r="C8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="59" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="12">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="11">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="59" t="e">
+        <f>AVERAGE(P9:Q9)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="11">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="59">
+        <f>AVERAGE(P10:Q10)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36">
+        <v>0.9</v>
+      </c>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="59">
+        <f t="shared" ref="R11:R13" si="1">AVERAGE(P11:Q11)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="11">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="59">
+        <f t="shared" si="1"/>
+        <v>0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="11">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C16" s="6"/>
+    </row>
+    <row r="33" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="D11" s="38"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="33" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="7" t="s">
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="7" t="s">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D40" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D41" s="7" t="s">
-        <v>32</v>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="C29:D36">
     <sortCondition descending="1" ref="C29"/>
   </sortState>
-  <mergeCells count="4">
-    <mergeCell ref="M1:N1"/>
+  <mergeCells count="5">
+    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3618,177 +3529,220 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="11.5546875" style="6"/>
+    <col min="16" max="16" width="21" customWidth="1"/>
+    <col min="18" max="18" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D1" s="45" t="str">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D1" s="44" t="str">
         <f>Procesos!D1</f>
         <v>Web IWM</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="45" t="str">
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="44" t="str">
         <f>Procesos!G1</f>
         <v>Web Anwar</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="45" t="str">
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="44" t="str">
         <f>Procesos!J1</f>
-        <v>Proyecto 3</v>
-      </c>
-      <c r="K1" s="46"/>
-      <c r="L1" s="47"/>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="26">
+        <v>Inter_cabina</v>
+      </c>
+      <c r="K1" s="45"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="45"/>
+      <c r="O1" s="46"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="25">
         <f>Procesos!D2</f>
         <v>20121025</v>
       </c>
-      <c r="E2" s="26" t="str">
+      <c r="E2" s="25" t="str">
         <f>Procesos!E2</f>
         <v>&lt;aammdd&gt;</v>
       </c>
-      <c r="F2" s="26" t="str">
+      <c r="F2" s="25" t="str">
         <f>Procesos!F2</f>
         <v>&lt;aammdd&gt;</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="25">
         <f>Procesos!G2</f>
         <v>121004</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="25">
         <f>Procesos!H2</f>
         <v>121023</v>
       </c>
-      <c r="I2" s="26" t="str">
+      <c r="I2" s="25" t="str">
         <f>Procesos!I2</f>
         <v>&lt;aammdd&gt;</v>
       </c>
-      <c r="J2" s="26" t="str">
+      <c r="J2" s="25">
         <f>Procesos!J2</f>
-        <v>&lt;aammdd&gt;</v>
-      </c>
-      <c r="K2" s="26" t="str">
+        <v>150604</v>
+      </c>
+      <c r="K2" s="25">
         <f>Procesos!K2</f>
-        <v>&lt;aammdd&gt;</v>
-      </c>
-      <c r="L2" s="26" t="str">
+        <v>150611</v>
+      </c>
+      <c r="L2" s="25" t="str">
         <f>Procesos!L2</f>
         <v>&lt;aammdd&gt;</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="25">
+        <f>Procesos!M2</f>
+        <v>150715</v>
+      </c>
+      <c r="N2" s="25">
+        <f>Procesos!N2</f>
+        <v>150716</v>
+      </c>
+      <c r="O2" s="25"/>
+      <c r="P2" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12">
+    <row r="3" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40">
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39">
         <v>0.66669999999999996</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="39">
         <v>0</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="2">
-        <f>AVERAGE(D3:L3)</f>
-        <v>0.33334999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="12">
+      <c r="I3" s="39"/>
+      <c r="J3" s="39">
+        <v>0</v>
+      </c>
+      <c r="K3" s="39">
+        <v>1</v>
+      </c>
+      <c r="L3" s="39"/>
+      <c r="M3" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="58">
+        <v>0</v>
+      </c>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59">
+        <f>AVERAGE(D3:O3)</f>
+        <v>0.3611166666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40">
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39">
         <v>1</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="39">
         <v>1</v>
       </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="2">
-        <f t="shared" ref="M4:M5" si="0">AVERAGE(D4:L4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="12">
+      <c r="I4" s="39"/>
+      <c r="J4" s="39">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="K4" s="39">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L4" s="39"/>
+      <c r="M4" s="58">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N4" s="58">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O4" s="58"/>
+      <c r="P4" s="59">
+        <f>AVERAGE(D4:O4)</f>
+        <v>0.66666190476190479</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="2" t="e">
-        <f t="shared" si="0"/>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="59" t="e">
+        <f>AVERAGE(D5:O5)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
-      <c r="D6" s="38"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
     </row>
-    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3798,181 +3752,222 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="10" style="39" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="10" style="38" customWidth="1"/>
     <col min="5" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10" style="6" customWidth="1"/>
+    <col min="16" max="16" width="19" customWidth="1"/>
+    <col min="17" max="17" width="10" customWidth="1"/>
+    <col min="18" max="18" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D1" s="45" t="str">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D1" s="44" t="str">
         <f>Procesos!D1</f>
         <v>Web IWM</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="45" t="str">
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="44" t="str">
         <f>Procesos!G1</f>
         <v>Web Anwar</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="45" t="str">
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="44" t="str">
         <f>Procesos!J1</f>
-        <v>Proyecto 3</v>
-      </c>
-      <c r="K1" s="46"/>
-      <c r="L1" s="47"/>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="26">
+        <v>Inter_cabina</v>
+      </c>
+      <c r="K1" s="45"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="45"/>
+      <c r="O1" s="46"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="25">
         <f>Procesos!D2</f>
         <v>20121025</v>
       </c>
-      <c r="E2" s="26" t="str">
+      <c r="E2" s="25" t="str">
         <f>Procesos!E2</f>
         <v>&lt;aammdd&gt;</v>
       </c>
-      <c r="F2" s="26" t="str">
+      <c r="F2" s="25" t="str">
         <f>Procesos!F2</f>
         <v>&lt;aammdd&gt;</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="25">
         <f>Procesos!G2</f>
         <v>121004</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="25">
         <f>Procesos!H2</f>
         <v>121023</v>
       </c>
-      <c r="I2" s="26" t="str">
+      <c r="I2" s="25" t="str">
         <f>Procesos!I2</f>
         <v>&lt;aammdd&gt;</v>
       </c>
-      <c r="J2" s="26" t="str">
+      <c r="J2" s="25">
         <f>Procesos!J2</f>
-        <v>&lt;aammdd&gt;</v>
-      </c>
-      <c r="K2" s="26" t="str">
+        <v>150604</v>
+      </c>
+      <c r="K2" s="25">
         <f>Procesos!K2</f>
-        <v>&lt;aammdd&gt;</v>
-      </c>
-      <c r="L2" s="26" t="str">
+        <v>150611</v>
+      </c>
+      <c r="L2" s="25" t="str">
         <f>Procesos!L2</f>
         <v>&lt;aammdd&gt;</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="25">
+        <f>Procesos!M2</f>
+        <v>150715</v>
+      </c>
+      <c r="N2" s="25">
+        <f>Procesos!N2</f>
+        <v>150716</v>
+      </c>
+      <c r="O2" s="26"/>
+      <c r="P2" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="12">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="40">
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="39">
         <v>1</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40">
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39">
         <v>0</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="39">
         <v>0.75</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="2">
+      <c r="I3" s="39"/>
+      <c r="J3" s="39">
+        <v>0</v>
+      </c>
+      <c r="K3" s="39">
+        <v>0</v>
+      </c>
+      <c r="L3" s="39"/>
+      <c r="M3" s="60">
+        <v>0</v>
+      </c>
+      <c r="N3" s="58">
+        <v>0.25</v>
+      </c>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59">
         <f>AVERAGE(D3:L3)</f>
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="12">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="40">
+      <c r="D4" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="39">
         <v>0.875</v>
       </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="2">
-        <f t="shared" ref="M4:M5" si="0">AVERAGE(D4:L4)</f>
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="12">
+      <c r="I4" s="39"/>
+      <c r="J4" s="39">
+        <v>0</v>
+      </c>
+      <c r="K4" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="L4" s="39"/>
+      <c r="M4" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="58"/>
+      <c r="P4" s="59">
+        <f t="shared" ref="P4:P5" si="0">AVERAGE(D4:L4)</f>
+        <v>0.35833333333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="2" t="e">
+      <c r="D5" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="59" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
-      <c r="D6" s="38"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
     </row>
-    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3988,618 +3983,618 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7"/>
-    <col min="5" max="5" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="6"/>
+    <col min="5" max="5" width="11" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-    </row>
-    <row r="3" spans="1:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="23" t="s">
+      <c r="C2" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+    </row>
+    <row r="3" spans="1:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+      <c r="A4" s="40">
         <v>41162</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>29</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>24</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="29">
         <f>(D4-C4)</f>
         <v>-5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
+      <c r="A5" s="40">
         <v>41166</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5">
         <v>29</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>26</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <f t="shared" ref="E5:E11" si="0">(D5-C5)</f>
         <v>-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
+      <c r="A6" s="40">
         <v>41187</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>102</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>101</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="29">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41">
+      <c r="A7" s="40">
         <v>41194</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5">
         <v>4</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>4</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+      <c r="A8" s="40">
         <v>41194</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5">
         <v>12</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>4</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="29">
         <f t="shared" si="0"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41">
+    <row r="9" spans="1:5" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="40">
         <v>41194</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5">
         <v>4</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>4</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+    <row r="10" spans="1:5" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="40">
         <v>41194</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="42">
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="41">
         <v>24</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="42">
         <v>23</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="29">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41">
+      <c r="A11" s="40">
         <v>41194</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="16">
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="15">
         <v>6</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>7</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="29"/>
+    <row r="12" spans="1:5" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="28"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
-    </row>
-    <row r="14" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="22" t="s">
+      <c r="C13" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+    </row>
+    <row r="14" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="40">
+        <v>41169</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
         <v>41</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41">
-        <v>41169</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9">
-        <v>41</v>
-      </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>57</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="29">
         <f t="shared" ref="E15:E22" si="1">(D15-C15)</f>
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41">
+      <c r="A16" s="40">
         <v>41180</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4">
         <v>45</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>37</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="29">
         <f t="shared" si="1"/>
         <v>-8</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41">
+      <c r="A17" s="40">
         <v>41205</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>137</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>122</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="29">
         <f t="shared" si="1"/>
         <v>-15</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41">
+      <c r="A18" s="40">
         <v>41206</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5">
         <v>4</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>4</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41">
+      <c r="A19" s="40">
         <v>41206</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="5">
         <v>12</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>4</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="29">
         <f t="shared" si="1"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41">
+    <row r="20" spans="1:5" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="40">
         <v>41206</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="6">
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="5">
         <v>4</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>4</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="41">
+    <row r="21" spans="1:5" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="40">
         <v>41206</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="42">
+      <c r="B21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="41">
         <v>24</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="42">
         <v>20</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="29">
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="41">
+    <row r="22" spans="1:5" s="6" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="40">
         <v>41206</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="16">
+      <c r="B22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="15">
         <v>6</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="16">
         <v>6</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="55"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="23" t="s">
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7"/>
+      <c r="B25" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="41">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="40">
         <v>41193</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>20</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>16</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="29">
         <f t="shared" ref="E26:E33" si="2">(D26-C26)</f>
         <v>-4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="30">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="4" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="30">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="30">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="30">
+    <row r="31" spans="1:5" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="30">
+    <row r="32" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="41"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="7" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="4" t="s">
+    <row r="33" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="31">
+      <c r="B33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="54"/>
-      <c r="E35" s="55"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="23" t="s">
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="53"/>
+      <c r="E35" s="54"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7"/>
+      <c r="B36" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="4" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="30">
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="29">
         <f t="shared" ref="E37:E44" si="3">(D37-C37)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="30">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="4" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="30">
+      <c r="C39" s="5"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="30">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="30">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="30"/>
-    </row>
-    <row r="43" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="30">
+    <row r="42" spans="1:5" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="29"/>
+    </row>
+    <row r="43" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="7" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="4" t="s">
+    <row r="44" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="31">
+      <c r="B44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4624,620 +4619,620 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="7"/>
-    <col min="2" max="2" width="34.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7"/>
-    <col min="5" max="5" width="14.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="7"/>
+    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="2" max="2" width="34.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="6"/>
+    <col min="5" max="5" width="14.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-    </row>
-    <row r="3" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="28" t="s">
+      <c r="C2" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+    </row>
+    <row r="3" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+      <c r="A4" s="40">
         <v>41162</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>1496.9</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>1238.8</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="33">
         <f>(D4-C4)</f>
         <v>-258.10000000000014</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
+      <c r="A5" s="40">
         <v>41166</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5">
         <v>1727.51</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1547.96</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="33">
         <f t="shared" ref="E5:E11" si="0">(D5-C5)</f>
         <v>-179.54999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
+      <c r="A6" s="40">
         <v>41187</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>5904.92</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>5845.07</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="33">
         <f t="shared" si="0"/>
         <v>-59.850000000000364</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41">
+      <c r="A7" s="40">
         <v>41194</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5">
         <v>239.41</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>239.41</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+      <c r="A8" s="40">
         <v>41194</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5">
         <v>383.73</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>239.41</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="33">
         <f t="shared" si="0"/>
         <v>-144.32000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41">
+      <c r="A9" s="40">
         <v>41194</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5">
         <v>239.41</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>239.41</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+      <c r="A10" s="40">
         <v>41194</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="42">
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="41">
         <v>767.46</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="42">
         <v>735.48</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="33">
         <f t="shared" si="0"/>
         <v>-31.980000000000018</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41">
+      <c r="A11" s="40">
         <v>41194</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="32">
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="31">
         <v>359.12</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="32">
         <v>418.97</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="34">
         <f t="shared" si="0"/>
         <v>59.850000000000023</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
-    </row>
-    <row r="14" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="28" t="s">
+      <c r="C13" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+    </row>
+    <row r="14" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41">
+      <c r="A15" s="40">
         <v>41169</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>2116.3000000000002</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>2890.72</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="33">
         <f>(D15-C15)</f>
         <v>774.41999999999962</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41">
+      <c r="A16" s="40">
         <v>41180</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="5">
         <v>2676.93</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>2214.4499999999998</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="33">
         <f t="shared" ref="E16:E22" si="1">(D16-C16)</f>
         <v>-462.48</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41">
+      <c r="A17" s="40">
         <v>41205</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>7998.03</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>7301.7</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="33">
         <f t="shared" si="1"/>
         <v>-696.32999999999993</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41">
+      <c r="A18" s="40">
         <v>41206</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5">
         <v>239.41</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>239.41</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41">
+      <c r="A19" s="40">
         <v>41206</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="5">
         <v>383.73</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>287.79000000000002</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="33">
         <f t="shared" si="1"/>
         <v>-95.94</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41">
+      <c r="A20" s="40">
         <v>41206</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="42">
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="41">
         <v>767.46</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>639.6</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="33">
         <f t="shared" si="1"/>
         <v>-127.86000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="41">
+      <c r="A21" s="40">
         <v>41206</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="5">
         <v>239.41</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>239.41</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="41">
+      <c r="A22" s="40">
         <v>41206</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="32">
+      <c r="B22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="31">
         <v>359.12</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="31">
         <v>359.12</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="55"/>
-    </row>
-    <row r="25" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="28" t="s">
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
+    </row>
+    <row r="25" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="44">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="43">
         <v>41194</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>1032.4000000000001</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>825.92</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="33">
         <f t="shared" ref="E26:E33" si="2">(D26-C26)</f>
         <v>-206.48000000000013</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="34">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="4" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="34">
+      <c r="C28" s="5"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="34">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="34">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="34">
+      <c r="A31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="34">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="4" t="s">
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="35">
+      <c r="B33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="54"/>
-      <c r="E35" s="55"/>
-    </row>
-    <row r="36" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="28" t="s">
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="53"/>
+      <c r="E35" s="54"/>
+    </row>
+    <row r="36" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="4" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="34">
+      <c r="C37" s="5"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="33">
         <f t="shared" ref="E37:E44" si="3">(D37-C37)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="34">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="4" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="34">
+      <c r="C39" s="5"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="34">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="34">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="34">
+      <c r="A42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="34">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="4" t="s">
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="35">
+      <c r="B44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="31"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>

--- a/Organización/Procesos/Soporte Organizacional/3. Medición, Monitoreo y Control/Medición/IWM_Concentración_Métricas.xlsx
+++ b/Organización/Procesos/Soporte Organizacional/3. Medición, Monitoreo y Control/Medición/IWM_Concentración_Métricas.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\IWM\Repositorio IWM\Organización\Procesos\Soporte Organizacional\3. Medición, Monitoreo y Control\Medición\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="708" windowWidth="12912" windowHeight="4596" tabRatio="658"/>
+    <workbookView xWindow="600" yWindow="705" windowWidth="12915" windowHeight="4590" tabRatio="658" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Procesos" sheetId="2" r:id="rId1"/>
@@ -14,12 +19,12 @@
     <sheet name="Esfuerzo" sheetId="6" r:id="rId5"/>
     <sheet name="Costos" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="52">
   <si>
     <t>Organizacional</t>
   </si>
@@ -136,9 +141,6 @@
   </si>
   <si>
     <t>webalgoritmia</t>
-  </si>
-  <si>
-    <t>&lt;Proyecto 4&gt;</t>
   </si>
   <si>
     <t>Aseguramietno de la calida</t>
@@ -824,6 +826,15 @@
     <xf numFmtId="14" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -848,6 +859,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -856,24 +876,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="5" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -888,6 +890,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -895,7 +900,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -972,7 +977,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -980,6 +997,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1024,7 +1046,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1046,6 +1080,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1105,7 +1144,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1113,6 +1164,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1157,7 +1213,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1179,6 +1247,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1223,7 +1296,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1245,6 +1330,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1381,12 +1471,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="107150720"/>
-        <c:axId val="107426944"/>
+        <c:axId val="128358416"/>
+        <c:axId val="128358976"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="107150720"/>
+        <c:axId val="128358416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1395,7 +1485,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107426944"/>
+        <c:crossAx val="128358976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1403,7 +1493,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107426944"/>
+        <c:axId val="128358976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1414,7 +1504,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107150720"/>
+        <c:crossAx val="128358416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1439,7 +1529,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1624,21 +1714,22 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="47302912"/>
-        <c:axId val="47312896"/>
+        <c:axId val="128361776"/>
+        <c:axId val="131060256"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="47302912"/>
+        <c:axId val="128361776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47312896"/>
+        <c:crossAx val="131060256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1646,7 +1737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47312896"/>
+        <c:axId val="131060256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1657,7 +1748,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47302912"/>
+        <c:crossAx val="128361776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1682,7 +1773,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1829,11 +1920,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="107847680"/>
-        <c:axId val="107849216"/>
+        <c:axId val="131063616"/>
+        <c:axId val="131064176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="107847680"/>
+        <c:axId val="131063616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1843,7 +1934,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107849216"/>
+        <c:crossAx val="131064176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1851,7 +1942,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107849216"/>
+        <c:axId val="131064176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1863,7 +1954,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107847680"/>
+        <c:crossAx val="131063616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1888,7 +1979,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1976,7 +2067,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1984,6 +2087,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2056,7 +2164,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2064,6 +2184,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -2119,7 +2244,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2127,6 +2264,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -2150,20 +2292,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="107947904"/>
-        <c:axId val="107949440"/>
+        <c:axId val="131068096"/>
+        <c:axId val="131068656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="107947904"/>
+        <c:axId val="131068096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107949440"/>
+        <c:crossAx val="131068656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2171,7 +2314,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107949440"/>
+        <c:axId val="131068656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2182,7 +2325,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107947904"/>
+        <c:crossAx val="131068096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2391,7 +2534,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2426,7 +2569,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2638,51 +2781,51 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" customWidth="1"/>
-    <col min="2" max="2" width="4.5546875" customWidth="1"/>
-    <col min="3" max="3" width="56.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="12" width="16.109375" customWidth="1"/>
-    <col min="13" max="15" width="16.109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="16.6640625" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="56.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="15" width="16.140625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D1" s="44" t="s">
+    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="44" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="51"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="55"/>
+      <c r="N1" s="56"/>
       <c r="O1" s="57"/>
-      <c r="P1" s="50" t="s">
+      <c r="P1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="51"/>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="Q1" s="54"/>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="35">
@@ -2729,7 +2872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="11">
         <v>1</v>
       </c>
@@ -2758,12 +2901,12 @@
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
       <c r="Q3" s="36"/>
-      <c r="R3" s="59">
+      <c r="R3" s="45">
         <f>AVERAGE(D3:O3)</f>
         <v>0.83340833333333342</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
         <v>2</v>
       </c>
@@ -2796,12 +2939,12 @@
       <c r="O4" s="36"/>
       <c r="P4" s="36"/>
       <c r="Q4" s="36"/>
-      <c r="R4" s="59">
+      <c r="R4" s="45">
         <f>AVERAGE(D4:O4)</f>
         <v>0.75097045454545452</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
         <v>3</v>
       </c>
@@ -2828,12 +2971,12 @@
       <c r="O5" s="36"/>
       <c r="P5" s="36"/>
       <c r="Q5" s="36"/>
-      <c r="R5" s="59" t="e">
-        <f t="shared" ref="R5:R9" si="0">AVERAGE(D5:O5)</f>
+      <c r="R5" s="45" t="e">
+        <f t="shared" ref="R5:R7" si="0">AVERAGE(D5:O5)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="11">
         <v>4</v>
       </c>
@@ -2860,12 +3003,12 @@
       <c r="O6" s="36"/>
       <c r="P6" s="36"/>
       <c r="Q6" s="36"/>
-      <c r="R6" s="59" t="e">
+      <c r="R6" s="45" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="11">
         <v>5</v>
       </c>
@@ -2886,12 +3029,12 @@
       <c r="O7" s="36"/>
       <c r="P7" s="36"/>
       <c r="Q7" s="36"/>
-      <c r="R7" s="59" t="e">
+      <c r="R7" s="45" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
         <v>6</v>
       </c>
@@ -2914,12 +3057,12 @@
       <c r="O8" s="36"/>
       <c r="P8" s="36"/>
       <c r="Q8" s="36"/>
-      <c r="R8" s="59">
+      <c r="R8" s="45">
         <f>AVERAGE(D8:O8)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>7</v>
       </c>
@@ -2942,17 +3085,17 @@
         <v>0.46153846153846156</v>
       </c>
       <c r="Q9" s="36"/>
-      <c r="R9" s="59">
+      <c r="R9" s="45">
         <f>AVERAGE(P9:Q9)</f>
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
         <v>8</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="36"/>
@@ -2970,17 +3113,17 @@
         <v>0.5</v>
       </c>
       <c r="Q10" s="36"/>
-      <c r="R10" s="59">
+      <c r="R10" s="45">
         <f t="shared" ref="R10:R11" si="1">AVERAGE(P10:Q10)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
         <v>9</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
@@ -2998,12 +3141,12 @@
         <v>0.7</v>
       </c>
       <c r="Q11" s="36"/>
-      <c r="R11" s="59">
+      <c r="R11" s="45">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
     </row>
-    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D1:F1"/>
@@ -3023,51 +3166,51 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="B1:R41"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" customWidth="1"/>
-    <col min="2" max="2" width="4.5546875" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="13" max="15" width="11.5546875" style="6"/>
-    <col min="18" max="18" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="13" max="15" width="11.5703125" style="6"/>
+    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="44" t="str">
+    <row r="1" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="47" t="str">
         <f>Procesos!D1</f>
         <v>Web IWM</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="44" t="str">
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="47" t="str">
         <f>Procesos!G1</f>
         <v>Web Anwar</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="44" t="str">
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="47" t="str">
         <f>Procesos!J1</f>
         <v>Inter_cabina</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="45" t="s">
+      <c r="K1" s="48"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="48"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="46"/>
-    </row>
-    <row r="2" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q1" s="49"/>
+    </row>
+    <row r="2" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="25">
@@ -3126,12 +3269,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="11">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="36">
         <v>1</v>
@@ -3155,17 +3298,17 @@
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
       <c r="Q3" s="36"/>
-      <c r="R3" s="59">
+      <c r="R3" s="45">
         <f>AVERAGE(D3:Q3)</f>
         <v>0.80909999999999993</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>23</v>
@@ -3191,12 +3334,12 @@
       <c r="O4" s="36"/>
       <c r="P4" s="36"/>
       <c r="Q4" s="36"/>
-      <c r="R4" s="59">
-        <f t="shared" ref="R4:R10" si="0">AVERAGE(D4:Q4)</f>
+      <c r="R4" s="45">
+        <f t="shared" ref="R4:R8" si="0">AVERAGE(D4:Q4)</f>
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
         <v>3</v>
       </c>
@@ -3227,12 +3370,12 @@
       <c r="O5" s="36"/>
       <c r="P5" s="36"/>
       <c r="Q5" s="36"/>
-      <c r="R5" s="59">
+      <c r="R5" s="45">
         <f t="shared" si="0"/>
         <v>0.78175714285714282</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="11">
         <v>4</v>
       </c>
@@ -3263,17 +3406,17 @@
       <c r="O6" s="36"/>
       <c r="P6" s="36"/>
       <c r="Q6" s="36"/>
-      <c r="R6" s="59">
+      <c r="R6" s="45">
         <f t="shared" si="0"/>
         <v>0.58695652173913049</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="11">
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
@@ -3291,17 +3434,17 @@
       <c r="O7" s="36"/>
       <c r="P7" s="36"/>
       <c r="Q7" s="36"/>
-      <c r="R7" s="59">
+      <c r="R7" s="45">
         <f t="shared" si="0"/>
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
@@ -3317,17 +3460,17 @@
       <c r="O8" s="36"/>
       <c r="P8" s="36"/>
       <c r="Q8" s="36"/>
-      <c r="R8" s="59" t="e">
+      <c r="R8" s="45" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="36"/>
       <c r="E9" s="36"/>
@@ -3343,12 +3486,12 @@
       <c r="O9" s="36"/>
       <c r="P9" s="36"/>
       <c r="Q9" s="36"/>
-      <c r="R9" s="59" t="e">
+      <c r="R9" s="45" t="e">
         <f>AVERAGE(P9:Q9)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
         <v>8</v>
       </c>
@@ -3371,17 +3514,17 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="Q10" s="36"/>
-      <c r="R10" s="59">
+      <c r="R10" s="45">
         <f>AVERAGE(P10:Q10)</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
@@ -3399,17 +3542,17 @@
         <v>0.9</v>
       </c>
       <c r="Q11" s="36"/>
-      <c r="R11" s="59">
+      <c r="R11" s="45">
         <f t="shared" ref="R11:R13" si="1">AVERAGE(P11:Q11)</f>
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
@@ -3427,17 +3570,17 @@
         <v>0.94117647058823528</v>
       </c>
       <c r="Q12" s="36"/>
-      <c r="R12" s="59">
+      <c r="R12" s="45">
         <f t="shared" si="1"/>
         <v>0.94117647058823528</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>11</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
@@ -3455,57 +3598,57 @@
         <v>1</v>
       </c>
       <c r="Q13" s="36"/>
-      <c r="R13" s="59">
+      <c r="R13" s="45">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
     </row>
-    <row r="33" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="6" t="s">
         <v>29</v>
       </c>
@@ -3531,47 +3674,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="N3" sqref="N3:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" customWidth="1"/>
-    <col min="2" max="2" width="4.5546875" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="11.5546875" style="6"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="11.5703125" style="6"/>
     <col min="16" max="16" width="21" customWidth="1"/>
-    <col min="18" max="18" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D1" s="44" t="str">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D1" s="47" t="str">
         <f>Procesos!D1</f>
         <v>Web IWM</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="44" t="str">
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="47" t="str">
         <f>Procesos!G1</f>
         <v>Web Anwar</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="44" t="str">
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="47" t="str">
         <f>Procesos!J1</f>
         <v>Inter_cabina</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="46"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K1" s="48"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="48"/>
+      <c r="O1" s="49"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="25">
@@ -3623,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11">
         <v>1</v>
       </c>
@@ -3647,19 +3790,19 @@
         <v>1</v>
       </c>
       <c r="L3" s="39"/>
-      <c r="M3" s="58">
+      <c r="M3" s="44">
         <v>0.5</v>
       </c>
-      <c r="N3" s="58">
+      <c r="N3" s="44">
         <v>0</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59">
+      <c r="O3" s="44"/>
+      <c r="P3" s="45">
         <f>AVERAGE(D3:O3)</f>
         <v>0.3611166666666667</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
         <v>2</v>
       </c>
@@ -3685,19 +3828,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="L4" s="39"/>
-      <c r="M4" s="58">
+      <c r="M4" s="44">
         <v>0.33333333333333331</v>
       </c>
-      <c r="N4" s="58">
+      <c r="N4" s="44">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O4" s="58"/>
-      <c r="P4" s="59">
+      <c r="O4" s="44"/>
+      <c r="P4" s="45">
         <f>AVERAGE(D4:O4)</f>
         <v>0.66666190476190479</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
         <v>3</v>
       </c>
@@ -3721,22 +3864,22 @@
       </c>
       <c r="K5" s="39"/>
       <c r="L5" s="39"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="59" t="e">
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="45" t="e">
         <f>AVERAGE(D5:O5)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="37"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
     </row>
-    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D1:F1"/>
@@ -3754,49 +3897,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" customWidth="1"/>
-    <col min="2" max="2" width="4.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="10" style="38" customWidth="1"/>
     <col min="5" max="12" width="10" customWidth="1"/>
     <col min="13" max="15" width="10" style="6" customWidth="1"/>
     <col min="16" max="16" width="19" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
-    <col min="18" max="18" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D1" s="44" t="str">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D1" s="47" t="str">
         <f>Procesos!D1</f>
         <v>Web IWM</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="44" t="str">
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="47" t="str">
         <f>Procesos!G1</f>
         <v>Web Anwar</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="44" t="str">
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="47" t="str">
         <f>Procesos!J1</f>
         <v>Inter_cabina</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="46"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K1" s="48"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="48"/>
+      <c r="O1" s="49"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="25">
@@ -3848,7 +3991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="11">
         <v>1</v>
       </c>
@@ -3874,19 +4017,19 @@
         <v>0</v>
       </c>
       <c r="L3" s="39"/>
-      <c r="M3" s="60">
+      <c r="M3" s="46">
         <v>0</v>
       </c>
-      <c r="N3" s="58">
+      <c r="N3" s="44">
         <v>0.25</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59">
+      <c r="O3" s="44"/>
+      <c r="P3" s="45">
         <f>AVERAGE(D3:L3)</f>
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
         <v>2</v>
       </c>
@@ -3912,19 +4055,19 @@
         <v>0.2</v>
       </c>
       <c r="L4" s="39"/>
-      <c r="M4" s="60">
+      <c r="M4" s="46">
         <v>0.5</v>
       </c>
-      <c r="N4" s="58">
+      <c r="N4" s="44">
         <v>0.5</v>
       </c>
-      <c r="O4" s="58"/>
-      <c r="P4" s="59">
+      <c r="O4" s="44"/>
+      <c r="P4" s="45">
         <f t="shared" ref="P4:P5" si="0">AVERAGE(D4:L4)</f>
         <v>0.35833333333333334</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
         <v>3</v>
       </c>
@@ -3946,22 +4089,22 @@
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
       <c r="L5" s="39"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="59" t="e">
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="45" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="37"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
     </row>
-    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D1:F1"/>
@@ -3979,28 +4122,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="6"/>
     <col min="5" max="5" width="11" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-    </row>
-    <row r="3" spans="1:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+    </row>
+    <row r="3" spans="1:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="21" t="s">
         <v>34</v>
@@ -4163,13 +4306,13 @@
       <c r="B12" s="28"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-    </row>
-    <row r="14" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+    </row>
+    <row r="14" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="21" t="s">
         <v>34</v>
@@ -4328,15 +4471,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="52" t="s">
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="54"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D24" s="59"/>
+      <c r="E24" s="60"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="21" t="s">
         <v>34</v>
@@ -4351,7 +4494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>41193</v>
       </c>
@@ -4369,7 +4512,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>16</v>
       </c>
@@ -4383,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>16</v>
       </c>
@@ -4397,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>16</v>
       </c>
@@ -4411,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>16</v>
       </c>
@@ -4439,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>16</v>
       </c>
@@ -4453,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>16</v>
       </c>
@@ -4467,15 +4610,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="54"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="59"/>
+      <c r="E35" s="60"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="21" t="s">
         <v>34</v>
@@ -4490,71 +4633,89 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="C37" s="8">
+        <v>29</v>
+      </c>
+      <c r="D37" s="9">
+        <v>27</v>
+      </c>
       <c r="E37" s="29">
         <f t="shared" ref="E37:E44" si="3">(D37-C37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="4"/>
+      <c r="C38" s="5">
+        <v>46</v>
+      </c>
+      <c r="D38" s="4">
+        <v>42</v>
+      </c>
       <c r="E38" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="4"/>
+      <c r="C39" s="5">
+        <v>100</v>
+      </c>
+      <c r="D39" s="4">
+        <v>20</v>
+      </c>
       <c r="E39" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="5"/>
+      <c r="C40" s="5">
+        <v>8</v>
+      </c>
       <c r="D40" s="4"/>
       <c r="E40" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="4"/>
+      <c r="C41" s="5">
+        <v>13</v>
+      </c>
+      <c r="D41" s="4">
+        <v>13</v>
+      </c>
       <c r="E41" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4567,36 +4728,51 @@
       <c r="B42" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="29"/>
-    </row>
-    <row r="43" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="5">
+        <v>22</v>
+      </c>
+      <c r="D42" s="4">
+        <v>4</v>
+      </c>
+      <c r="E42" s="29">
+        <f t="shared" si="3"/>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="4"/>
+      <c r="C43" s="5">
+        <v>4</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
       <c r="E43" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="16"/>
+      <c r="C44" s="5">
+        <v>4</v>
+      </c>
+      <c r="D44" s="16">
+        <v>1</v>
+      </c>
       <c r="E44" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
   </sheetData>
@@ -4615,29 +4791,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
-    <col min="2" max="2" width="34.44140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="6"/>
-    <col min="5" max="5" width="14.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="2" max="2" width="34.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="6"/>
+    <col min="5" max="5" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-    </row>
-    <row r="3" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+    </row>
+    <row r="3" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="11" t="s">
         <v>34</v>
@@ -4798,13 +4974,13 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-    </row>
-    <row r="14" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+    </row>
+    <row r="14" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="11" t="s">
         <v>34</v>
@@ -4914,7 +5090,7 @@
         <v>41206</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="41">
         <v>767.46</v>
@@ -4963,15 +5139,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="52" t="s">
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="54"/>
-    </row>
-    <row r="25" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="59"/>
+      <c r="E24" s="60"/>
+    </row>
+    <row r="25" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="11" t="s">
         <v>34</v>
@@ -4986,7 +5162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="43">
         <v>41194</v>
       </c>
@@ -5004,7 +5180,7 @@
         <v>-206.48000000000013</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>16</v>
       </c>
@@ -5018,7 +5194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>16</v>
       </c>
@@ -5032,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>16</v>
       </c>
@@ -5046,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>16</v>
       </c>
@@ -5065,7 +5241,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="4"/>
@@ -5074,7 +5250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>16</v>
       </c>
@@ -5088,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>16</v>
       </c>
@@ -5102,15 +5278,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="54"/>
-    </row>
-    <row r="36" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="59"/>
+      <c r="E35" s="60"/>
+    </row>
+    <row r="36" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="11" t="s">
         <v>34</v>
@@ -5125,71 +5301,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="4"/>
+      <c r="C37" s="5">
+        <v>1496.9</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1393.66</v>
+      </c>
       <c r="E37" s="33">
         <f t="shared" ref="E37:E44" si="3">(D37-C37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-103.24000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="4"/>
+      <c r="C38" s="5">
+        <v>2745.01</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2505.6</v>
+      </c>
       <c r="E38" s="33">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-239.41000000000031</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="4"/>
+      <c r="C39" s="5">
+        <v>6307.67</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1261.5340000000001</v>
+      </c>
       <c r="E39" s="33">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-5046.1360000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="4"/>
+      <c r="C40" s="5">
+        <v>478.83</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
       <c r="E40" s="33">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-478.83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="4"/>
+      <c r="C41" s="5">
+        <v>415.71</v>
+      </c>
+      <c r="D41" s="4">
+        <v>415.71</v>
+      </c>
       <c r="E41" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5200,41 +5396,53 @@
         <v>16</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="C42" s="5">
+        <v>703.51</v>
+      </c>
+      <c r="D42" s="4">
+        <v>127.91</v>
+      </c>
       <c r="E42" s="33">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-575.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="4"/>
+      <c r="C43" s="5">
+        <v>239.41</v>
+      </c>
+      <c r="D43" s="4">
+        <v>59.85</v>
+      </c>
       <c r="E43" s="33">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-179.56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
+      <c r="C44" s="5">
+        <v>239.41</v>
+      </c>
+      <c r="D44" s="4">
+        <v>59.85</v>
+      </c>
       <c r="E44" s="34">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-179.56</v>
       </c>
     </row>
   </sheetData>

--- a/Organización/Procesos/Soporte Organizacional/3. Medición, Monitoreo y Control/Medición/IWM_Concentración_Métricas.xlsx
+++ b/Organización/Procesos/Soporte Organizacional/3. Medición, Monitoreo y Control/Medición/IWM_Concentración_Métricas.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gus\Documents\IWM\CMMI\GitHUB\Organización\Procesos\Soporte Organizacional\3. Medición, Monitoreo y Control\Medición\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="705" windowWidth="12915" windowHeight="4590" tabRatio="658" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="705" windowWidth="12915" windowHeight="4590" tabRatio="658" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Procesos" sheetId="2" r:id="rId1"/>
@@ -13,13 +18,14 @@
     <sheet name="Funcional" sheetId="5" r:id="rId4"/>
     <sheet name="Esfuerzo" sheetId="6" r:id="rId5"/>
     <sheet name="Costos" sheetId="9" r:id="rId6"/>
+    <sheet name="Capacitación" sheetId="10" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="57">
   <si>
     <t>Organizacional</t>
   </si>
@@ -164,6 +170,33 @@
   <si>
     <t>Aseguramietno de la calida</t>
   </si>
+  <si>
+    <t>Se obtuvo un 100% de capacitaciones realizadas comparandolas con las planeadas</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Lider de proyecto</t>
+  </si>
+  <si>
+    <t>Equipo</t>
+  </si>
+  <si>
+    <t>Desarrolladores</t>
+  </si>
+  <si>
+    <t>Capacitacion</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>Area de procesos</t>
+  </si>
+  <si>
+    <t>Herramientas</t>
+  </si>
 </sst>
 </file>
 
@@ -172,7 +205,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,8 +281,15 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +314,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF535A63"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -670,7 +722,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -813,6 +865,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,9 +879,17 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF535A63"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -833,7 +898,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -910,7 +975,17 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -918,6 +993,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -962,7 +1042,17 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -984,6 +1074,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1043,7 +1138,17 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1051,6 +1156,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1095,7 +1205,17 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1117,6 +1237,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1161,7 +1286,17 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1183,6 +1318,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1242,7 +1382,17 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1250,6 +1400,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1302,12 +1457,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="131613696"/>
-        <c:axId val="50780928"/>
+        <c:axId val="967891744"/>
+        <c:axId val="967727904"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="131613696"/>
+        <c:axId val="967891744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1316,7 +1471,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50780928"/>
+        <c:crossAx val="967727904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1324,7 +1479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50780928"/>
+        <c:axId val="967727904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1335,7 +1490,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131613696"/>
+        <c:crossAx val="967891744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1359,7 +1514,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1394,17 +1549,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Productos!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
@@ -1436,7 +1580,17 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1444,12 +1598,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Productos!#REF!</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Productos!$O$3</c:f>
@@ -1462,21 +1616,48 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Productos!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Productos!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Productos!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
@@ -1508,7 +1689,17 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1516,6 +1707,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1529,21 +1725,33 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Productos!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Productos!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
@@ -1560,7 +1768,17 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1568,6 +1786,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1581,21 +1804,33 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Productos!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Productos!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
@@ -1627,7 +1862,17 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1635,6 +1880,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1648,21 +1898,33 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Productos!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Productos!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
@@ -1694,7 +1956,17 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1702,6 +1974,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1715,21 +1992,33 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Productos!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
           <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Productos!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
@@ -1746,7 +2035,17 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1768,6 +2067,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1781,21 +2085,33 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Productos!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
           <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Productos!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
@@ -1827,7 +2143,17 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1835,6 +2161,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1848,21 +2179,33 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Productos!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Productos!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
@@ -1879,7 +2222,17 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1901,6 +2254,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1914,6 +2272,29 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Productos!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1925,12 +2306,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="133460480"/>
-        <c:axId val="52995200"/>
+        <c:axId val="1133697616"/>
+        <c:axId val="1133693264"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="133460480"/>
+        <c:axId val="1133697616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1939,7 +2320,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52995200"/>
+        <c:crossAx val="1133693264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1947,7 +2328,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52995200"/>
+        <c:axId val="1133693264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1958,7 +2339,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133460480"/>
+        <c:crossAx val="1133697616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1982,7 +2363,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2014,6 +2395,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2133,11 +2515,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="133462016"/>
-        <c:axId val="52997504"/>
+        <c:axId val="1133703600"/>
+        <c:axId val="1133694896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133462016"/>
+        <c:axId val="1133703600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2147,7 +2529,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52997504"/>
+        <c:crossAx val="1133694896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2155,7 +2537,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52997504"/>
+        <c:axId val="1133694896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2167,13 +2549,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133462016"/>
+        <c:crossAx val="1133703600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2191,7 +2574,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2283,7 +2666,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2291,6 +2686,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2367,7 +2767,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2375,6 +2787,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -2434,7 +2851,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2442,6 +2871,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -2465,20 +2899,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="133632000"/>
-        <c:axId val="52999808"/>
+        <c:axId val="1133700336"/>
+        <c:axId val="1133692176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133632000"/>
+        <c:axId val="1133700336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52999808"/>
+        <c:crossAx val="1133692176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2486,7 +2921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52999808"/>
+        <c:axId val="1133692176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,7 +2932,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133632000"/>
+        <c:crossAx val="1133700336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2517,6 +2952,987 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Evaluación de capacitación</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Capacitación!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lider de proyecto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Capacitación!$B$3,Capacitación!$D$3)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Area de procesos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Herramientas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Capacitación!$C$3,Capacitación!$E$3)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Capacitación!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Equipo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Capacitación!$B$3,Capacitación!$D$3)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Area de procesos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Herramientas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Capacitación!$C$4,Capacitación!$E$4)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Capacitación!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desarrolladores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Capacitación!$B$3,Capacitación!$D$3)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Area de procesos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Herramientas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Capacitación!$C$5,Capacitación!$E$5)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1314871648"/>
+        <c:axId val="1314866208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1314871648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1314866208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1314866208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1314871648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2663,6 +4079,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2706,7 +4157,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2741,7 +4192,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3800,8 +5251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4620,7 +6071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -5252,4 +6703,108 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="58">
+        <v>4.78</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="58">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="58">
+        <v>4.7</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="58">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="58">
+        <v>4.7</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="58">
+        <v>4.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Organización/Procesos/Soporte Organizacional/3. Medición, Monitoreo y Control/Medición/IWM_Concentración_Métricas.xlsx
+++ b/Organización/Procesos/Soporte Organizacional/3. Medición, Monitoreo y Control/Medición/IWM_Concentración_Métricas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="705" windowWidth="12915" windowHeight="4590" tabRatio="658" activeTab="5"/>
+    <workbookView xWindow="600" yWindow="705" windowWidth="12915" windowHeight="4590" tabRatio="658" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Procesos" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="52">
   <si>
     <t>Organizacional</t>
   </si>
@@ -978,9 +978,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1047,9 +1045,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1145,9 +1141,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1214,9 +1208,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1297,9 +1289,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1471,12 +1461,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="128358416"/>
-        <c:axId val="128358976"/>
+        <c:axId val="103431424"/>
+        <c:axId val="103431984"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="128358416"/>
+        <c:axId val="103431424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1485,7 +1475,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128358976"/>
+        <c:crossAx val="103431984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1493,7 +1483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128358976"/>
+        <c:axId val="103431984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1504,14 +1494,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128358416"/>
+        <c:crossAx val="103431424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1714,12 +1703,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="128361776"/>
-        <c:axId val="131060256"/>
+        <c:axId val="119250752"/>
+        <c:axId val="119251312"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="128361776"/>
+        <c:axId val="119250752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1729,7 +1718,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131060256"/>
+        <c:crossAx val="119251312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1737,7 +1726,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131060256"/>
+        <c:axId val="119251312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1748,14 +1737,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128361776"/>
+        <c:crossAx val="119250752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1800,7 +1788,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1920,11 +1907,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="131063616"/>
-        <c:axId val="131064176"/>
+        <c:axId val="119254672"/>
+        <c:axId val="119255232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="131063616"/>
+        <c:axId val="119254672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,7 +1921,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131064176"/>
+        <c:crossAx val="119255232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1942,7 +1929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131064176"/>
+        <c:axId val="119255232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1954,14 +1941,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131063616"/>
+        <c:crossAx val="119254672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2006,7 +1992,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2068,9 +2053,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2165,9 +2148,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2245,9 +2226,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2292,11 +2271,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="131068096"/>
-        <c:axId val="131068656"/>
+        <c:axId val="119777312"/>
+        <c:axId val="119777872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="131068096"/>
+        <c:axId val="119777312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2306,7 +2285,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131068656"/>
+        <c:crossAx val="119777872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2314,7 +2293,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131068656"/>
+        <c:axId val="119777872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2325,14 +2304,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131068096"/>
+        <c:crossAx val="119777312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4123,7 +4101,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4634,8 +4612,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
-        <v>16</v>
+      <c r="A37" s="43">
+        <v>42194</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>1</v>
@@ -4652,8 +4630,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
-        <v>16</v>
+      <c r="A38" s="43">
+        <v>42201</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>20</v>
@@ -4680,11 +4658,11 @@
         <v>100</v>
       </c>
       <c r="D39" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E39" s="29">
         <f t="shared" si="3"/>
-        <v>-80</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -4697,15 +4675,17 @@
       <c r="C40" s="5">
         <v>8</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
       <c r="E40" s="29">
         <f t="shared" si="3"/>
         <v>-8</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
-        <v>16</v>
+      <c r="A41" s="43">
+        <v>42202</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>21</v>
@@ -4714,16 +4694,16 @@
         <v>13</v>
       </c>
       <c r="D41" s="4">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E41" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
-        <v>16</v>
+      <c r="A42" s="43">
+        <v>42202</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>37</v>
@@ -4732,16 +4712,16 @@
         <v>22</v>
       </c>
       <c r="D42" s="4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E42" s="29">
         <f t="shared" si="3"/>
-        <v>-18</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
-        <v>16</v>
+      <c r="A43" s="43">
+        <v>42202</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>14</v>
@@ -4750,16 +4730,16 @@
         <v>4</v>
       </c>
       <c r="D43" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="29">
         <f t="shared" si="3"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="11" t="s">
-        <v>16</v>
+      <c r="A44" s="43">
+        <v>42202</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>15</v>
@@ -4768,11 +4748,11 @@
         <v>4</v>
       </c>
       <c r="D44" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="30">
         <f t="shared" si="3"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
@@ -4791,13 +4771,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="14.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" style="6" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="6"/>
@@ -5302,8 +5282,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
-        <v>16</v>
+      <c r="A37" s="43">
+        <v>42194</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>1</v>
@@ -5320,8 +5300,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
-        <v>16</v>
+      <c r="A38" s="43">
+        <v>42201</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>20</v>
@@ -5348,11 +5328,11 @@
         <v>6307.67</v>
       </c>
       <c r="D39" s="4">
-        <v>1261.5340000000001</v>
+        <v>0</v>
       </c>
       <c r="E39" s="33">
         <f t="shared" si="3"/>
-        <v>-5046.1360000000004</v>
+        <v>-6307.67</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -5374,8 +5354,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
-        <v>16</v>
+      <c r="A41" s="43">
+        <v>42202</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>21</v>
@@ -5384,16 +5364,16 @@
         <v>415.71</v>
       </c>
       <c r="D41" s="4">
-        <v>415.71</v>
+        <v>207.85</v>
       </c>
       <c r="E41" s="33">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-207.85999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
-        <v>16</v>
+      <c r="A42" s="43">
+        <v>42202</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>39</v>
@@ -5402,16 +5382,16 @@
         <v>703.51</v>
       </c>
       <c r="D42" s="4">
-        <v>127.91</v>
+        <v>351.75</v>
       </c>
       <c r="E42" s="33">
         <f t="shared" si="3"/>
-        <v>-575.6</v>
+        <v>-351.76</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
-        <v>16</v>
+      <c r="A43" s="43">
+        <v>42202</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>14</v>
@@ -5419,17 +5399,17 @@
       <c r="C43" s="5">
         <v>239.41</v>
       </c>
-      <c r="D43" s="4">
-        <v>59.85</v>
+      <c r="D43" s="6">
+        <v>119.7</v>
       </c>
       <c r="E43" s="33">
         <f t="shared" si="3"/>
-        <v>-179.56</v>
+        <v>-119.71</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="11" t="s">
-        <v>16</v>
+      <c r="A44" s="43">
+        <v>42202</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>15</v>
@@ -5437,12 +5417,12 @@
       <c r="C44" s="5">
         <v>239.41</v>
       </c>
-      <c r="D44" s="4">
-        <v>59.85</v>
+      <c r="D44" s="6">
+        <v>119.7</v>
       </c>
       <c r="E44" s="34">
         <f t="shared" si="3"/>
-        <v>-179.56</v>
+        <v>-119.71</v>
       </c>
     </row>
   </sheetData>
